--- a/params_1d.xlsx
+++ b/params_1d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46FA8AB-690E-466A-88E8-4C54001095E4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6294B1E5-7A85-4DAC-BFD4-45DDE5E26BF9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7380" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>val</t>
   </si>
@@ -48,6 +48,36 @@
   </si>
   <si>
     <t>bc_us</t>
+  </si>
+  <si>
+    <t>dx</t>
+  </si>
+  <si>
+    <t>WindSpeed</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>m³/s</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>OHConc</t>
+  </si>
+  <si>
+    <t>EaAir</t>
+  </si>
+  <si>
+    <t>Ea</t>
   </si>
 </sst>
 </file>
@@ -83,8 +113,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,39 +430,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD8B427-7822-4B11-BEA9-14D81D15628E}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A9" sqref="A9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -439,12 +482,61 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>1515000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1">
+        <v>80000</v>
       </c>
     </row>
   </sheetData>

--- a/params_1d.xlsx
+++ b/params_1d.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6294B1E5-7A85-4DAC-BFD4-45DDE5E26BF9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7724BE6D-8349-4D45-B15F-C386FDCA5AF8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7380" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="99">
   <si>
     <t>val</t>
   </si>
@@ -68,9 +69,6 @@
     <t>m³/s</t>
   </si>
   <si>
-    <t>unit</t>
-  </si>
-  <si>
     <t>OHConc</t>
   </si>
   <si>
@@ -78,6 +76,258 @@
   </si>
   <si>
     <t>Ea</t>
+  </si>
+  <si>
+    <t>thetam</t>
+  </si>
+  <si>
+    <t>mobile water fraction</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>Gao 2010</t>
+  </si>
+  <si>
+    <t>wmim</t>
+  </si>
+  <si>
+    <t>mobile/immobile mixing rate (/min)</t>
+  </si>
+  <si>
+    <t>J/mol/K</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>description &amp; unit</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>Trapp (2000)</t>
+  </si>
+  <si>
+    <t>kxw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUM, TRAPP (2010) </t>
+  </si>
+  <si>
+    <t>pH_cyt</t>
+  </si>
+  <si>
+    <t>pH of the cytoplasm</t>
+  </si>
+  <si>
+    <t>kcw</t>
+  </si>
+  <si>
+    <t>E_plas</t>
+  </si>
+  <si>
+    <t>V, charge of the plasmallela membrane</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Faraday constant (C/mol)</t>
+  </si>
+  <si>
+    <t>fet2</t>
+  </si>
+  <si>
+    <t>Fraction of ET going through compartment 2</t>
+  </si>
+  <si>
+    <t>fet4</t>
+  </si>
+  <si>
+    <t>Fraction of ET going through compartment 4</t>
+  </si>
+  <si>
+    <t>Aroot</t>
+  </si>
+  <si>
+    <t>Specific area of root m²/m³ control volume</t>
+  </si>
+  <si>
+    <t>VFroot</t>
+  </si>
+  <si>
+    <t>Volume of root m³/m² ground area</t>
+  </si>
+  <si>
+    <t>Trapp (2000) for 1 m² ground area</t>
+  </si>
+  <si>
+    <t>VFrootbody</t>
+  </si>
+  <si>
+    <t>VFrootxylem</t>
+  </si>
+  <si>
+    <t>VFrootcylinder</t>
+  </si>
+  <si>
+    <t>Free area in roots</t>
+  </si>
+  <si>
+    <t>Main body of roots</t>
+  </si>
+  <si>
+    <t>Root xylem</t>
+  </si>
+  <si>
+    <t>Root Cylinder</t>
+  </si>
+  <si>
+    <t>VFapoplast</t>
+  </si>
+  <si>
+    <t>relative humidity</t>
+  </si>
+  <si>
+    <t>Activation energy in the air</t>
+  </si>
+  <si>
+    <t>Activation energy in other media</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>m, diffusion length in immobile phase</t>
+  </si>
+  <si>
+    <t>1um</t>
+  </si>
+  <si>
+    <t>f_apo</t>
+  </si>
+  <si>
+    <t>Fraction of ET flow from apoplast</t>
+  </si>
+  <si>
+    <t>Fraction of root without secondary epothileum, where ET flow comes from</t>
+  </si>
+  <si>
+    <t>U42</t>
+  </si>
+  <si>
+    <t>Could calculate based on Ksat calculations</t>
+  </si>
+  <si>
+    <t>m/h Particle settling from topsoil to gravel</t>
+  </si>
+  <si>
+    <t>RainRate</t>
+  </si>
+  <si>
+    <t>m/h</t>
+  </si>
+  <si>
+    <t>Ifw</t>
+  </si>
+  <si>
+    <t>Ilw</t>
+  </si>
+  <si>
+    <t>lamb</t>
+  </si>
+  <si>
+    <t>kwe</t>
+  </si>
+  <si>
+    <t>Rlf</t>
+  </si>
+  <si>
+    <t>Wet interception fraction</t>
+  </si>
+  <si>
+    <t>Wet interception loss fraction</t>
+  </si>
+  <si>
+    <t>Canopy drip efficiency</t>
+  </si>
+  <si>
+    <t>Diamond (2001)</t>
+  </si>
+  <si>
+    <t>Set to growth rate - could make this seasonal</t>
+  </si>
+  <si>
+    <t>k_rg</t>
+  </si>
+  <si>
+    <t>k_sg</t>
+  </si>
+  <si>
+    <t>Trapp 2007, rate for leaves. For stem they have 2.74e-5, this is for fruit trees though</t>
+  </si>
+  <si>
+    <t>ksa</t>
+  </si>
+  <si>
+    <t>Mackay (1992)</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Rain scavenging ratio</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>m/h aerosol dry deposition velocity</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Sciszar (2016)</t>
+  </si>
+  <si>
+    <t>kg/m²</t>
+  </si>
+  <si>
+    <t>froot_top</t>
+  </si>
+  <si>
+    <t>Fraction of roots in topsoil</t>
+  </si>
+  <si>
+    <t>froot_tip</t>
+  </si>
+  <si>
+    <t>k_rd</t>
+  </si>
+  <si>
+    <t>/hr, Rate of root death</t>
+  </si>
+  <si>
+    <t>/hr Rate of literfall</t>
+  </si>
+  <si>
+    <t>m/h Wax erosion MTC</t>
+  </si>
+  <si>
+    <t>/hr 1st order shoot growth constant</t>
+  </si>
+  <si>
+    <t>m/h Air side MTC over soil</t>
+  </si>
+  <si>
+    <t>m/h Pore water side MTC for water/soil transfer</t>
+  </si>
+  <si>
+    <t>/hr 1st order root growth rate constant</t>
   </si>
 </sst>
 </file>
@@ -430,18 +680,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD8B427-7822-4B11-BEA9-14D81D15628E}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -449,10 +700,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -463,7 +717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -474,7 +728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -482,7 +736,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -493,7 +747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -504,7 +758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -515,28 +769,501 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>1515000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
         <v>80000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2.94E-5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>8.3144597999999998</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15">
+        <f>0.1/24</f>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>6.5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1">
+        <f>0.00025*60*60</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>-0.12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>96485.332890000005</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>0.3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22">
+        <v>0.7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24">
+        <v>1.82E-3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>0.72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>5.67E-2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28">
+        <v>0.2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29">
+        <v>0.05</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30">
+        <v>0.1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34">
+        <v>0.2475</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="1">
+        <v>8.7000000000000001E-4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="1">
+        <v>8.05E-8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2.31E-4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="1">
+        <f>0.1/24</f>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="1">
+        <f>0.035/24</f>
+        <v>1.4583333333333334E-3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="1">
+        <v>200000</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/params_1d.xlsx
+++ b/params_1d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7724BE6D-8349-4D45-B15F-C386FDCA5AF8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0C25D2-247C-4D1D-A8D4-592BC85A10C9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7380" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="97">
   <si>
     <t>val</t>
   </si>
@@ -48,9 +48,6 @@
     <t>phi</t>
   </si>
   <si>
-    <t>bc_us</t>
-  </si>
-  <si>
     <t>dx</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
   </si>
   <si>
     <t>m</t>
-  </si>
-  <si>
-    <t>activity</t>
   </si>
   <si>
     <t>m³/s</t>
@@ -680,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD8B427-7822-4B11-BEA9-14D81D15628E}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -714,7 +708,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -725,42 +719,42 @@
         <v>0.6</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>0.6</v>
+        <v>62</v>
+      </c>
+      <c r="B4" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -771,7 +765,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>1515000</v>
@@ -779,409 +773,413 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>10000</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>80000</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0.69</v>
       </c>
       <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
         <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1">
         <v>2.94E-5</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>8.3144597999999998</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1">
         <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B15">
         <f>0.1/24</f>
         <v>4.1666666666666666E-3</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1">
         <v>0.01</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>6.5</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1">
         <f>0.00025*60*60</f>
         <v>0.89999999999999991</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>-0.12</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>96485.332890000005</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>0.3</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>0.7</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B23">
         <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B24">
         <v>1.82E-3</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25">
         <v>0.72</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B26">
         <v>2.3300000000000001E-2</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B27">
         <v>5.67E-2</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28">
         <v>0.2</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B29">
         <v>0.05</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B30">
         <v>0.1</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B31" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="1">
-        <v>9.9999999999999995E-7</v>
+      <c r="B33">
+        <v>0.2475</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34">
-        <v>0.2475</v>
+        <v>65</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.19</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35" s="1">
-        <v>0.19</v>
+        <v>8.7000000000000001E-4</v>
       </c>
       <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" t="s">
         <v>72</v>
-      </c>
-      <c r="D35" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36" s="1">
-        <v>8.7000000000000001E-4</v>
+        <v>8.05E-8</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37" s="1">
-        <v>8.05E-8</v>
+        <v>2.31E-4</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="B38" s="1">
-        <v>2.31E-4</v>
+        <f>0.1/24</f>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B39" s="1">
-        <f>0.1/24</f>
-        <v>4.1666666666666666E-3</v>
+        <f>0.035/24</f>
+        <v>1.4583333333333334E-3</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1189,11 +1187,10 @@
         <v>77</v>
       </c>
       <c r="B40" s="1">
-        <f>0.035/24</f>
-        <v>1.4583333333333334E-3</v>
+        <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
         <v>78</v>
@@ -1204,13 +1201,13 @@
         <v>79</v>
       </c>
       <c r="B41" s="1">
-        <v>1</v>
+        <v>200000</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1218,13 +1215,13 @@
         <v>81</v>
       </c>
       <c r="B42" s="1">
-        <v>200000</v>
+        <v>1.5</v>
       </c>
       <c r="C42" t="s">
         <v>82</v>
       </c>
       <c r="D42" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1232,38 +1229,24 @@
         <v>83</v>
       </c>
       <c r="B43" s="1">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B44" s="1">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="C44" t="s">
         <v>87</v>
-      </c>
-      <c r="D44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="C45" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/params_1d.xlsx
+++ b/params_1d.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0C25D2-247C-4D1D-A8D4-592BC85A10C9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DDF66B-1BC6-4922-ADB5-3B886CB6454F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7380" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0" concurrentManualCount="8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="98">
   <si>
     <t>val</t>
   </si>
@@ -60,9 +60,6 @@
     <t>m</t>
   </si>
   <si>
-    <t>m³/s</t>
-  </si>
-  <si>
     <t>OHConc</t>
   </si>
   <si>
@@ -321,7 +318,13 @@
     <t>m/h Pore water side MTC for water/soil transfer</t>
   </si>
   <si>
-    <t>/hr 1st order root growth rate constant</t>
+    <t>m³/h</t>
+  </si>
+  <si>
+    <t>/h 1st order root growth rate constant</t>
+  </si>
+  <si>
+    <t>m/h, cell wall permeability</t>
   </si>
 </sst>
 </file>
@@ -676,13 +679,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD8B427-7822-4B11-BEA9-14D81D15628E}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -694,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -708,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -719,18 +722,18 @@
         <v>0.6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -765,7 +768,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>1515000</v>
@@ -773,79 +776,79 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>10000</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
         <v>80000</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>0.69</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
         <v>2.94E-5</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>8.3144597999999998</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1">
         <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15">
         <f>0.1/24</f>
@@ -855,398 +858,398 @@
         <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
         <v>0.01</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>6.5</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1">
-        <f>0.00025*60*60</f>
-        <v>0.89999999999999991</v>
+        <f>0.00025*3600</f>
+        <v>0.9</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>-0.12</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20">
         <v>96485.332890000005</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>0.3</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>0.7</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>0.01</v>
+      </c>
+      <c r="C23" t="s">
         <v>37</v>
-      </c>
-      <c r="B23">
-        <v>100</v>
-      </c>
-      <c r="C23" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24">
         <v>1.82E-3</v>
       </c>
       <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
         <v>40</v>
-      </c>
-      <c r="D24" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25">
         <v>0.72</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26">
         <v>2.3300000000000001E-2</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27">
         <v>5.67E-2</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28">
         <v>0.2</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29">
         <v>0.05</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B30">
         <v>0.1</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" t="s">
         <v>54</v>
-      </c>
-      <c r="D31" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33">
         <v>0.2475</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34" s="1">
         <v>0.19</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="1">
         <v>8.7000000000000001E-4</v>
       </c>
       <c r="C35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" t="s">
         <v>71</v>
-      </c>
-      <c r="D35" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" s="1">
         <v>8.05E-8</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B37" s="1">
         <v>2.31E-4</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B38" s="1">
         <f>0.1/24</f>
         <v>4.1666666666666666E-3</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B39" s="1">
         <f>0.035/24</f>
         <v>1.4583333333333334E-3</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B41" s="1">
         <v>200000</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42" s="1">
         <v>1.5</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B43" s="1">
         <v>0.4</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B44" s="1">
         <v>0.7</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/params_1d.xlsx
+++ b/params_1d.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DDF66B-1BC6-4922-ADB5-3B886CB6454F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33E9032-7CE1-4325-9DAA-C20DBC46C6C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7380" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0" concurrentManualCount="8"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="100">
   <si>
     <t>val</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>m/h, cell wall permeability</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>Longitudinal dispersivity coefficient, m</t>
   </si>
 </sst>
 </file>
@@ -677,19 +683,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD8B427-7822-4B11-BEA9-14D81D15628E}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -703,7 +709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -714,7 +720,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -725,7 +731,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -736,7 +742,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -747,7 +753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -755,7 +761,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -766,7 +772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -774,7 +780,7 @@
         <v>1515000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -785,7 +791,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -796,7 +802,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -810,7 +816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -824,7 +830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -835,7 +841,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -846,7 +852,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -861,7 +867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -875,7 +881,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -889,7 +895,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -904,7 +910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -918,7 +924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -929,7 +935,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -940,7 +946,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -951,7 +957,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -962,7 +968,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -976,7 +982,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -990,7 +996,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1004,7 +1010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -1018,7 +1024,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -1032,7 +1038,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1046,7 +1052,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -1057,7 +1063,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -1071,7 +1077,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -1085,7 +1091,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -1099,7 +1105,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -1113,7 +1119,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -1127,7 +1133,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -1141,7 +1147,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -1155,7 +1161,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -1170,7 +1176,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -1185,7 +1191,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -1199,7 +1205,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -1213,7 +1219,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -1227,7 +1233,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -1241,7 +1247,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -1250,6 +1256,17 @@
       </c>
       <c r="C44" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C45" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/params_1d.xlsx
+++ b/params_1d.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33E9032-7CE1-4325-9DAA-C20DBC46C6C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17EE039-0E26-4556-8272-F0555D24149C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
+    <workbookView xWindow="2760" yWindow="3024" windowWidth="15120" windowHeight="9060" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -327,10 +327,10 @@
     <t>m/h, cell wall permeability</t>
   </si>
   <si>
-    <t>alpha</t>
-  </si>
-  <si>
     <t>Longitudinal dispersivity coefficient, m</t>
+  </si>
+  <si>
+    <t>alpha3</t>
   </si>
 </sst>
 </file>
@@ -685,17 +685,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD8B427-7822-4B11-BEA9-14D81D15628E}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -709,7 +709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -720,7 +720,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -731,7 +731,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -742,7 +742,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -753,7 +753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -761,18 +761,18 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -780,7 +780,7 @@
         <v>1515000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -791,7 +791,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -802,7 +802,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -816,7 +816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -830,7 +830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -841,7 +841,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -852,7 +852,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -867,7 +867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -881,7 +881,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -895,7 +895,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -910,7 +910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -924,7 +924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -935,7 +935,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -946,7 +946,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -957,7 +957,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -968,7 +968,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -982,7 +982,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -996,7 +996,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -1258,15 +1258,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B45" s="1">
         <v>0.05</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/params_1d.xlsx
+++ b/params_1d.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17EE039-0E26-4556-8272-F0555D24149C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8AC179-7166-4445-A425-9AB6FABC39CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="3024" windowWidth="15120" windowHeight="9060" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -330,7 +330,7 @@
     <t>Longitudinal dispersivity coefficient, m</t>
   </si>
   <si>
-    <t>alpha3</t>
+    <t>alpha</t>
   </si>
 </sst>
 </file>
@@ -686,16 +686,16 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -709,7 +709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -720,7 +720,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -731,7 +731,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -742,7 +742,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -753,7 +753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -761,18 +761,18 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -780,7 +780,7 @@
         <v>1515000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -791,7 +791,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -802,7 +802,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -816,7 +816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -830,7 +830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -841,7 +841,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -852,7 +852,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -867,7 +867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -881,7 +881,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -895,7 +895,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -910,7 +910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -924,7 +924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -935,7 +935,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -946,7 +946,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -957,18 +957,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
       <c r="B23">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -982,7 +982,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -996,7 +996,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>99</v>
       </c>
@@ -1271,5 +1271,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/params_1d.xlsx
+++ b/params_1d.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8AC179-7166-4445-A425-9AB6FABC39CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945556DD-003A-48D1-9696-2518B937E403}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="96">
   <si>
     <t>val</t>
   </si>
@@ -39,24 +39,9 @@
     <t>name</t>
   </si>
   <si>
-    <t>Qin</t>
-  </si>
-  <si>
-    <t>Qout</t>
-  </si>
-  <si>
-    <t>phi</t>
-  </si>
-  <si>
     <t>dx</t>
   </si>
   <si>
-    <t>WindSpeed</t>
-  </si>
-  <si>
-    <t>m/s</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
@@ -72,9 +57,6 @@
     <t>thetam</t>
   </si>
   <si>
-    <t>mobile water fraction</t>
-  </si>
-  <si>
     <t>Ref</t>
   </si>
   <si>
@@ -216,12 +198,6 @@
     <t>m/h Particle settling from topsoil to gravel</t>
   </si>
   <si>
-    <t>RainRate</t>
-  </si>
-  <si>
-    <t>m/h</t>
-  </si>
-  <si>
     <t>Ifw</t>
   </si>
   <si>
@@ -291,9 +267,6 @@
     <t>froot_top</t>
   </si>
   <si>
-    <t>Fraction of roots in topsoil</t>
-  </si>
-  <si>
     <t>froot_tip</t>
   </si>
   <si>
@@ -318,9 +291,6 @@
     <t>m/h Pore water side MTC for water/soil transfer</t>
   </si>
   <si>
-    <t>m³/h</t>
-  </si>
-  <si>
     <t>/h 1st order root growth rate constant</t>
   </si>
   <si>
@@ -330,7 +300,25 @@
     <t>Longitudinal dispersivity coefficient, m</t>
   </si>
   <si>
+    <t>Fraction (m²/m²) of roots in topsoil</t>
+  </si>
+  <si>
+    <t>Atmospheric hydroxyl concentration, number/m³</t>
+  </si>
+  <si>
     <t>alpha</t>
+  </si>
+  <si>
+    <t>LAI</t>
+  </si>
+  <si>
+    <t>Leaf area index (m² leaf/m² ground)</t>
+  </si>
+  <si>
+    <t>mobile water fraction, Gao 2010 said 0.69</t>
+  </si>
+  <si>
+    <t>Calibrated to HRT</t>
   </si>
 </sst>
 </file>
@@ -683,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD8B427-7822-4B11-BEA9-14D81D15628E}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,10 +691,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -714,559 +702,521 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>0.6</v>
+        <v>1515000</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>9.9999999999999995E-7</v>
+        <v>10000</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" s="1">
+        <v>80000</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.6</v>
+        <v>0.89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.94E-5</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>1515000</v>
+        <v>8.3144597999999998</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>10000</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
-        <v>80000</v>
+        <v>65</v>
+      </c>
+      <c r="B10">
+        <f>0.1/24</f>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>0.69</v>
+        <v>17</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.01</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>6.5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
         <v>16</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2.94E-5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>8.3144597999999998</v>
+        <v>21</v>
+      </c>
+      <c r="B13" s="1">
+        <f>0.00025*3600</f>
+        <v>0.9</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="1">
-        <v>70</v>
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>-0.12</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="B15">
+        <v>96485.332890000005</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>0.3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>0.7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>1.82E-3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>0.72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22">
+        <v>5.67E-2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>0.2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24">
+        <v>0.05</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25">
+        <v>0.1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28">
+        <v>0.2475</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1">
+        <v>8.7000000000000001E-4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1">
+        <v>8.05E-8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2.31E-4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="1">
         <f>0.1/24</f>
         <v>4.1666666666666666E-3</v>
       </c>
-      <c r="C15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="C16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17">
-        <v>6.5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="1">
-        <f>0.00025*3600</f>
-        <v>0.9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19">
-        <v>-0.12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20">
-        <v>96485.332890000005</v>
-      </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>0.3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22">
-        <v>0.7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23">
-        <v>100</v>
-      </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24">
-        <v>1.82E-3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25">
-        <v>0.72</v>
-      </c>
-      <c r="C25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27">
-        <v>5.67E-2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28">
-        <v>0.2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29">
-        <v>0.05</v>
-      </c>
-      <c r="C29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30">
-        <v>0.1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33">
-        <v>0.2475</v>
-      </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B34" s="1">
-        <v>0.19</v>
+        <f>0.035/24</f>
+        <v>1.4583333333333334E-3</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B35" s="1">
-        <v>8.7000000000000001E-4</v>
+        <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" s="1">
-        <v>8.05E-8</v>
+        <v>200000</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B37" s="1">
-        <v>2.31E-4</v>
+        <v>1.5</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B38" s="1">
-        <f>0.1/24</f>
-        <v>4.1666666666666666E-3</v>
+        <v>0.4</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B39" s="1">
-        <f>0.035/24</f>
-        <v>1.4583333333333334E-3</v>
+        <v>0.7</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B40" s="1">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B41" s="1">
-        <v>200000</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="C42" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C43" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="C44" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C45" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/params_1d.xlsx
+++ b/params_1d.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945556DD-003A-48D1-9696-2518B937E403}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0F7079-08E2-4DAD-8966-E415C4324042}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
+    <workbookView xWindow="12" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -673,17 +673,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD8B427-7822-4B11-BEA9-14D81D15628E}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -697,7 +697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -708,7 +708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -719,7 +719,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -730,7 +730,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -741,7 +741,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -755,7 +755,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -769,7 +769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -780,7 +780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -791,7 +791,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -806,7 +806,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -820,7 +820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -834,7 +834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -849,7 +849,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -863,7 +863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -874,7 +874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -885,7 +885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -896,7 +896,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -907,7 +907,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -921,7 +921,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -935,7 +935,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -949,7 +949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -963,7 +963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -977,7 +977,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -991,7 +991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>92</v>
       </c>

--- a/params_1d.xlsx
+++ b/params_1d.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0F7079-08E2-4DAD-8966-E415C4324042}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07A69E4-70B3-4C84-A220-58D3C5B2024B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="123">
   <si>
     <t>val</t>
   </si>
@@ -111,18 +114,6 @@
     <t>Faraday constant (C/mol)</t>
   </si>
   <si>
-    <t>fet2</t>
-  </si>
-  <si>
-    <t>Fraction of ET going through compartment 2</t>
-  </si>
-  <si>
-    <t>fet4</t>
-  </si>
-  <si>
-    <t>Fraction of ET going through compartment 4</t>
-  </si>
-  <si>
     <t>Aroot</t>
   </si>
   <si>
@@ -319,19 +310,117 @@
   </si>
   <si>
     <t>Calibrated to HRT</t>
+  </si>
+  <si>
+    <t>fet_ts</t>
+  </si>
+  <si>
+    <t>fet_ss</t>
+  </si>
+  <si>
+    <t>Fraction of ET going through topsoil (ts)</t>
+  </si>
+  <si>
+    <t>Fraction of ET going through subsoil (ss)</t>
+  </si>
+  <si>
+    <t>MinWindSpeed</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>Half of the reporting limit from the logger (0.5 is lowest value)</t>
+  </si>
+  <si>
+    <t>Ymob_immob</t>
+  </si>
+  <si>
+    <t>Pulse</t>
+  </si>
+  <si>
+    <t>Pulse injection, True for pulse, False for continuous</t>
+  </si>
+  <si>
+    <t>vert_flow</t>
+  </si>
+  <si>
+    <t>Is the flow vertical? Boolean</t>
+  </si>
+  <si>
+    <t>AF_soil</t>
+  </si>
+  <si>
+    <t>Area (m²) of soil/water interface per m³ of porous media (12000)</t>
+  </si>
+  <si>
+    <t>Carman (1938), range of 150 - 220 for sand</t>
+  </si>
+  <si>
+    <t>Calibrated 55.0416069</t>
+  </si>
+  <si>
+    <t>sys_x</t>
+  </si>
+  <si>
+    <t>0,1.5239,1.524,15.4305,15.4306,16.1163,16.1164,30.0228,30.0229,30.7086,30.7087,45.0342,45.0343,45.72</t>
+  </si>
+  <si>
+    <t>x coordinates of system for system geometry</t>
+  </si>
+  <si>
+    <t>sys_ss</t>
+  </si>
+  <si>
+    <t>0.3048,0.3048,0.3048,0.3048,0.6096,0.9144,0.3048,0.3048,0.9144,0.9144,0.3048,0.3048,0.762,0.762</t>
+  </si>
+  <si>
+    <t>subsoil depths at given x coordinates</t>
+  </si>
+  <si>
+    <t>sys_ts</t>
+  </si>
+  <si>
+    <t>0.,0.,0.6096,0.6096,0.,0.,0.6096,0.6096,0.,0.,0.6096,0.4572,0.,0.</t>
+  </si>
+  <si>
+    <t>topsoil depths at given x coordinates</t>
+  </si>
+  <si>
+    <t>ph_x</t>
+  </si>
+  <si>
+    <t>0,1.99728666666667,7.75,18.21018,32.4812,45.5</t>
+  </si>
+  <si>
+    <t>x coordinates for pH interpolation</t>
+  </si>
+  <si>
+    <t>pH_interp</t>
+  </si>
+  <si>
+    <t>7.45,7.17272727272727,6.755,6.94333333333333,7.21181818181818,7.11367424242424</t>
+  </si>
+  <si>
+    <t>pH interpolation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -354,9 +443,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,19 +763,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD8B427-7822-4B11-BEA9-14D81D15628E}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -697,7 +789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -708,7 +800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -716,10 +808,10 @@
         <v>1515000</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -727,10 +819,10 @@
         <v>10000</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -738,10 +830,10 @@
         <v>80000</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -749,13 +841,13 @@
         <v>0.89</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -769,7 +861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -780,7 +872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -788,25 +880,25 @@
         <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B10">
         <f>0.1/24</f>
         <v>4.1666666666666666E-3</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -814,13 +906,13 @@
         <v>0.01</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -834,7 +926,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -843,13 +935,13 @@
         <v>0.9</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -863,7 +955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -874,349 +966,471 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="B16">
         <v>0.3</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="B17">
         <v>0.7</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>1.82E-3</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>0.72</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>2.3300000000000001E-2</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <v>5.67E-2</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B23">
         <v>0.2</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B24">
         <v>0.05</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B25">
         <v>0.1</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B26" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>52</v>
       </c>
       <c r="B27" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B28">
         <v>0.2475</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B29" s="1">
         <v>0.19</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B30" s="1">
         <v>8.7000000000000001E-4</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B31" s="1">
         <v>8.05E-8</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B32" s="1">
         <v>2.31E-4</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B33" s="1">
         <f>0.1/24</f>
         <v>4.1666666666666666E-3</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B34" s="1">
         <f>0.035/24</f>
         <v>1.4583333333333334E-3</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B36" s="1">
         <v>200000</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B37" s="1">
         <v>1.5</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B38" s="1">
         <v>0.4</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B39" s="1">
         <v>0.7</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B40" s="1">
         <v>0.05</v>
       </c>
       <c r="C40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>92</v>
       </c>
       <c r="B41" s="1">
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42">
+        <v>0.25</v>
+      </c>
+      <c r="C42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="2">
+        <v>200</v>
+      </c>
+      <c r="C46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/params_1d.xlsx
+++ b/params_1d.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07A69E4-70B3-4C84-A220-58D3C5B2024B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F805701E-1B8B-4780-B2E7-D2F17FFF48AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="124">
   <si>
     <t>val</t>
   </si>
@@ -69,9 +69,6 @@
     <t>wmim</t>
   </si>
   <si>
-    <t>mobile/immobile mixing rate (/min)</t>
-  </si>
-  <si>
     <t>J/mol/K</t>
   </si>
   <si>
@@ -216,18 +213,12 @@
     <t>Diamond (2001)</t>
   </si>
   <si>
-    <t>Set to growth rate - could make this seasonal</t>
-  </si>
-  <si>
     <t>k_rg</t>
   </si>
   <si>
     <t>k_sg</t>
   </si>
   <si>
-    <t>Trapp 2007, rate for leaves. For stem they have 2.74e-5, this is for fruit trees though</t>
-  </si>
-  <si>
     <t>ksa</t>
   </si>
   <si>
@@ -282,9 +273,6 @@
     <t>m/h Pore water side MTC for water/soil transfer</t>
   </si>
   <si>
-    <t>/h 1st order root growth rate constant</t>
-  </si>
-  <si>
     <t>m/h, cell wall permeability</t>
   </si>
   <si>
@@ -309,9 +297,6 @@
     <t>mobile water fraction, Gao 2010 said 0.69</t>
   </si>
   <si>
-    <t>Calibrated to HRT</t>
-  </si>
-  <si>
     <t>fet_ts</t>
   </si>
   <si>
@@ -330,9 +315,6 @@
     <t>m/s</t>
   </si>
   <si>
-    <t>Half of the reporting limit from the logger (0.5 is lowest value)</t>
-  </si>
-  <si>
     <t>Ymob_immob</t>
   </si>
   <si>
@@ -357,52 +339,73 @@
     <t>Carman (1938), range of 150 - 220 for sand</t>
   </si>
   <si>
-    <t>Calibrated 55.0416069</t>
-  </si>
-  <si>
     <t>sys_x</t>
   </si>
   <si>
+    <t>sys_ss</t>
+  </si>
+  <si>
+    <t>subsoil depths at given x coordinates</t>
+  </si>
+  <si>
+    <t>sys_ts</t>
+  </si>
+  <si>
+    <t>topsoil depths at given x coordinates</t>
+  </si>
+  <si>
+    <t>x coordinates of system for system geometry</t>
+  </si>
+  <si>
+    <t>mobile/immobile mixing rate (/hr)</t>
+  </si>
+  <si>
+    <t>ph_x</t>
+  </si>
+  <si>
+    <t>pH_interp</t>
+  </si>
+  <si>
+    <t>x coordinates for pH interpolation</t>
+  </si>
+  <si>
+    <t>pH interpolation</t>
+  </si>
+  <si>
+    <t>0,1.99728666666667,7.75,18.21018,32.4812,45.5</t>
+  </si>
+  <si>
+    <t>7.45,7.17272727272727,6.755,6.94333333333333,7.21181818181818,7.11367424242424</t>
+  </si>
+  <si>
+    <t>immobmobfac</t>
+  </si>
+  <si>
+    <t>Calibrated 1.98694581e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/h 1st order root growth rate constant </t>
+  </si>
+  <si>
+    <t>Cecchetti 2020, using turnover rate for root growth and death in Oro Loma wet meadow cells</t>
+  </si>
+  <si>
+    <t>Cecchetti 2020, using 2019 aboveground turnover rate for in Oro Loma wet meadow cells</t>
+  </si>
+  <si>
     <t>0,1.5239,1.524,15.4305,15.4306,16.1163,16.1164,30.0228,30.0229,30.7086,30.7087,45.0342,45.0343,45.72</t>
   </si>
   <si>
-    <t>x coordinates of system for system geometry</t>
-  </si>
-  <si>
-    <t>sys_ss</t>
-  </si>
-  <si>
-    <t>0.3048,0.3048,0.3048,0.3048,0.6096,0.9144,0.3048,0.3048,0.9144,0.9144,0.3048,0.3048,0.762,0.762</t>
-  </si>
-  <si>
-    <t>subsoil depths at given x coordinates</t>
-  </si>
-  <si>
-    <t>sys_ts</t>
-  </si>
-  <si>
-    <t>0.,0.,0.6096,0.6096,0.,0.,0.6096,0.6096,0.,0.,0.6096,0.4572,0.,0.</t>
-  </si>
-  <si>
-    <t>topsoil depths at given x coordinates</t>
-  </si>
-  <si>
-    <t>ph_x</t>
-  </si>
-  <si>
-    <t>0,1.99728666666667,7.75,18.21018,32.4812,45.5</t>
-  </si>
-  <si>
-    <t>x coordinates for pH interpolation</t>
-  </si>
-  <si>
-    <t>pH_interp</t>
-  </si>
-  <si>
-    <t>7.45,7.17272727272727,6.755,6.94333333333333,7.21181818181818,7.11367424242424</t>
-  </si>
-  <si>
-    <t>pH interpolation</t>
+    <t>Half of the reporting limit from the logger (0.75 is lowest reported value)</t>
+  </si>
+  <si>
+    <t>Calculated from velocity in tracer test 0.560255289369162</t>
+  </si>
+  <si>
+    <t>0.3048,0.3048,0.3048,0.3048,0.3048,0.3048,0.3048,0.3048,0.3048,0.3048,0.3048,0.3048,0.3048,0.3048</t>
+  </si>
+  <si>
+    <t>0.,0.,0.6096,0.6096,0.6096,0.6096,0.6096,0.6096,0.6096,0.6096,0.6096,0.4572,0.,0.</t>
   </si>
 </sst>
 </file>
@@ -443,10 +446,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -763,19 +770,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD8B427-7822-4B11-BEA9-14D81D15628E}">
-  <dimension ref="A1:E51"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -783,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -800,7 +809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -808,10 +817,10 @@
         <v>1515000</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -819,10 +828,10 @@
         <v>10000</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -830,607 +839,629 @@
         <v>80000</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>0.89</v>
+      <c r="B6" s="2">
+        <v>0.56000000000000005</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>2.94E-5</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>2.9399999999999999E-4</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
         <v>8.3144597999999998</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11">
+        <f>0.6/24/365</f>
+        <v>6.8493150684931502E-5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>6.5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1">
-        <v>70</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10">
-        <f>0.1/24</f>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
-        <v>6.5</v>
-      </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1">
+      <c r="B14" s="1">
         <f>0.00025*3600</f>
         <v>0.9</v>
       </c>
-      <c r="C13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>-0.12</v>
+      </c>
+      <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="B14">
-        <v>-0.12</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
+      <c r="B16">
+        <v>96485.332890000005</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
-      </c>
-      <c r="B15">
-        <v>96485.332890000005</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16">
-        <v>0.3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B17">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>0.7</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>1.82E-3</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.72</v>
+        <v>1.82E-3</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>2.3300000000000001E-2</v>
+        <v>0.72</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>5.67E-2</v>
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>0.2</v>
+        <v>5.67E-2</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B24">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B25">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="1">
-        <v>9.9999999999999995E-7</v>
+        <v>71</v>
+      </c>
+      <c r="B26">
+        <v>0.1</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B27" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28">
-        <v>0.2475</v>
+        <v>47</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0.19</v>
+        <v>50</v>
+      </c>
+      <c r="B29">
+        <v>0.2475</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B30" s="1">
-        <v>8.7000000000000001E-4</v>
+        <v>0.19</v>
       </c>
       <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
         <v>58</v>
-      </c>
-      <c r="D30" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1">
-        <v>8.05E-8</v>
+        <v>8.7000000000000001E-4</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1">
-        <v>2.31E-4</v>
+        <v>8.05E-8</v>
       </c>
       <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="1">
+        <f>B35</f>
+        <v>4.7374429223744297E-4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="1">
+        <f>B11</f>
+        <v>6.8493150684931502E-5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="1">
+        <f>4.15/24/365</f>
+        <v>4.7374429223744297E-4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
         <v>77</v>
       </c>
-      <c r="D32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="1">
-        <f>0.1/24</f>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
+      <c r="D36" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="1">
-        <f>0.035/24</f>
-        <v>1.4583333333333334E-3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" t="s">
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
+      <c r="B37" s="1">
+        <v>200000</v>
+      </c>
+      <c r="C37" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="3">
+        <v>8.0186249500000008E-3</v>
+      </c>
+      <c r="C41" t="s">
         <v>80</v>
       </c>
-      <c r="D35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="1">
-        <v>200000</v>
-      </c>
-      <c r="C36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="C37" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C38" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" s="1">
-        <v>2</v>
-      </c>
-      <c r="C41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>96</v>
-      </c>
-      <c r="B42">
-        <v>0.25</v>
-      </c>
-      <c r="C42" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43" s="1">
+        <v>91</v>
+      </c>
+      <c r="B43">
+        <v>0.375</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="1">
         <v>1E-3</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" t="s">
         <v>43</v>
       </c>
-      <c r="D43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>100</v>
-      </c>
-      <c r="B44" t="b">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B45" t="b">
         <v>0</v>
       </c>
       <c r="C45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="4">
+        <v>15.058877799999999</v>
+      </c>
+      <c r="C47" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
+      <c r="D49" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
         <v>104</v>
       </c>
-      <c r="B46" s="2">
-        <v>200</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" t="s">
         <v>105</v>
       </c>
-      <c r="D46" t="s">
-        <v>106</v>
-      </c>
-      <c r="E46" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
+      <c r="D50" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
         <v>108</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
         <v>109</v>
       </c>
-      <c r="C47" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
+      <c r="B52" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" t="s">
         <v>111</v>
-      </c>
-      <c r="B48" t="s">
-        <v>112</v>
-      </c>
-      <c r="C48" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>114</v>
-      </c>
-      <c r="B49" t="s">
-        <v>115</v>
-      </c>
-      <c r="C49" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>117</v>
-      </c>
-      <c r="B50" t="s">
-        <v>118</v>
-      </c>
-      <c r="C50" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>120</v>
-      </c>
-      <c r="B51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
